--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2390.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2390.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.059227638898954</v>
+        <v>0.9546350836753845</v>
       </c>
       <c r="B1">
-        <v>2.333045486149171</v>
+        <v>2.011213302612305</v>
       </c>
       <c r="C1">
-        <v>7.386151360431171</v>
+        <v>4.127926349639893</v>
       </c>
       <c r="D1">
-        <v>1.808464828089129</v>
+        <v>3.218059301376343</v>
       </c>
       <c r="E1">
-        <v>1.007827747885843</v>
+        <v>1.430335164070129</v>
       </c>
     </row>
   </sheetData>
